--- a/self_maintain.xlsx
+++ b/self_maintain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30735" windowHeight="10380"/>
+    <workbookView windowWidth="9240" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>real_name</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>http://hls.weathertv.cn/tslslive/qCFIfHB/hls/live_sd.m3u8</t>
+  </si>
+  <si>
+    <t>EBC Live</t>
+  </si>
+  <si>
+    <t>cn/EBC_LIVE.jpg</t>
+  </si>
+  <si>
+    <t>東森LIVE</t>
+  </si>
+  <si>
+    <t>https://epg.pw/stream/3c39204a43b38809d7ca92a73dcb9263c9c3690fd81b5b27532fd26896789489.m3u8</t>
   </si>
 </sst>
 </file>
@@ -780,10 +792,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -791,6 +806,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,12 +1131,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1128,10 +1149,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1140,178 +1161,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1325,6 +1363,7 @@
     <hyperlink ref="E9" r:id="rId7" display="https://rbmn-live.akamaized.net/hls/live/590964/BoRB-AT/master_3360.m3u8"/>
     <hyperlink ref="E11" r:id="rId8" display="http://hls.weathertv.cn/tslslive/qCFIfHB/hls/live_sd.m3u8" tooltip="http://hls.weathertv.cn/tslslive/qCFIfHB/hls/live_sd.m3u8"/>
     <hyperlink ref="E10" r:id="rId9" display="http://218.202.220.2:5000/nn_live.ts?id=STARTV"/>
+    <hyperlink ref="E12" r:id="rId10" display="https://epg.pw/stream/3c39204a43b38809d7ca92a73dcb9263c9c3690fd81b5b27532fd26896789489.m3u8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/self_maintain.xlsx
+++ b/self_maintain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9240" windowHeight="7260"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>real_name</t>
   </si>
@@ -171,6 +171,30 @@
   </si>
   <si>
     <t>https://epg.pw/stream/3c39204a43b38809d7ca92a73dcb9263c9c3690fd81b5b27532fd26896789489.m3u8</t>
+  </si>
+  <si>
+    <t>TTV HD</t>
+  </si>
+  <si>
+    <t>cn/ttvhd.png</t>
+  </si>
+  <si>
+    <t>[BD]台视hd[geo-blocked]</t>
+  </si>
+  <si>
+    <t>https://epg.pw/stream/850967cb490cf3c98e20a19b56de0e5a029710949cff71a4132bf059dcf656bc.m3u8</t>
+  </si>
+  <si>
+    <t>DaAi2 (大愛2)</t>
+  </si>
+  <si>
+    <t>cn/daai.png</t>
+  </si>
+  <si>
+    <t>[HD]大爱2</t>
+  </si>
+  <si>
+    <t>https://epg.pw/stream/8dab0126668b960d4130c12b25e9278ffda43f5b66fa986287ed34cd97cbd721.m3u8</t>
   </si>
 </sst>
 </file>
@@ -792,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,10 +832,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,12 +1157,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1339,7 +1365,7 @@
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1348,8 +1374,42 @@
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1364,6 +1424,8 @@
     <hyperlink ref="E11" r:id="rId8" display="http://hls.weathertv.cn/tslslive/qCFIfHB/hls/live_sd.m3u8" tooltip="http://hls.weathertv.cn/tslslive/qCFIfHB/hls/live_sd.m3u8"/>
     <hyperlink ref="E10" r:id="rId9" display="http://218.202.220.2:5000/nn_live.ts?id=STARTV"/>
     <hyperlink ref="E12" r:id="rId10" display="https://epg.pw/stream/3c39204a43b38809d7ca92a73dcb9263c9c3690fd81b5b27532fd26896789489.m3u8"/>
+    <hyperlink ref="E14" r:id="rId11" display="https://epg.pw/stream/8dab0126668b960d4130c12b25e9278ffda43f5b66fa986287ed34cd97cbd721.m3u8"/>
+    <hyperlink ref="E13" r:id="rId12" display="https://epg.pw/stream/850967cb490cf3c98e20a19b56de0e5a029710949cff71a4132bf059dcf656bc.m3u8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
